--- a/data/pca/factorExposure/factorExposure_2017-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02374958864746058</v>
+        <v>-0.009103638988146669</v>
       </c>
       <c r="C2">
-        <v>0.000712965125471785</v>
+        <v>-0.04340864436133236</v>
       </c>
       <c r="D2">
-        <v>0.02046816327685943</v>
+        <v>0.02955757378715758</v>
       </c>
       <c r="E2">
-        <v>-0.01122049134379324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03253124463938342</v>
+      </c>
+      <c r="F2">
+        <v>0.0115246204774827</v>
+      </c>
+      <c r="G2">
+        <v>-0.07150128187591946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01739193477648322</v>
+        <v>-0.04871915744045862</v>
       </c>
       <c r="C3">
-        <v>-0.05671669922735758</v>
+        <v>-0.08292804316167193</v>
       </c>
       <c r="D3">
-        <v>0.03466757404870407</v>
+        <v>0.01662352280842219</v>
       </c>
       <c r="E3">
-        <v>-0.01353159805777462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1041007246056565</v>
+      </c>
+      <c r="F3">
+        <v>0.009579364782617733</v>
+      </c>
+      <c r="G3">
+        <v>-0.1774619859212322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02360123773794532</v>
+        <v>-0.05877665536313478</v>
       </c>
       <c r="C4">
-        <v>-0.01632102990671993</v>
+        <v>-0.06656359185732411</v>
       </c>
       <c r="D4">
-        <v>0.06870530870282068</v>
+        <v>0.0238710452652322</v>
       </c>
       <c r="E4">
-        <v>0.01498700134897987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02359299481516768</v>
+      </c>
+      <c r="F4">
+        <v>0.00494051756799056</v>
+      </c>
+      <c r="G4">
+        <v>-0.07769267830037152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01515411641956974</v>
+        <v>-0.0382083184682881</v>
       </c>
       <c r="C6">
-        <v>-0.00734982474436484</v>
+        <v>-0.05327961935023695</v>
       </c>
       <c r="D6">
-        <v>0.08422088062060468</v>
+        <v>0.01654542209254649</v>
       </c>
       <c r="E6">
-        <v>0.0079251663103221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02621166098448094</v>
+      </c>
+      <c r="F6">
+        <v>0.01098190502791555</v>
+      </c>
+      <c r="G6">
+        <v>-0.05991771137297139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01112539520737955</v>
+        <v>-0.01984612676395154</v>
       </c>
       <c r="C7">
-        <v>-0.00759412647815155</v>
+        <v>-0.04108811020520654</v>
       </c>
       <c r="D7">
-        <v>0.04165007805550819</v>
+        <v>0.01310363914729401</v>
       </c>
       <c r="E7">
-        <v>0.05953892306402385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005688540079994018</v>
+      </c>
+      <c r="F7">
+        <v>-0.005946093804482472</v>
+      </c>
+      <c r="G7">
+        <v>-0.114448533569637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001364734844505273</v>
+        <v>-0.001111897636775342</v>
       </c>
       <c r="C8">
-        <v>0.00163285560144228</v>
+        <v>-0.0233994269810099</v>
       </c>
       <c r="D8">
-        <v>0.002687142872851258</v>
+        <v>0.004099675258862614</v>
       </c>
       <c r="E8">
-        <v>0.008348947150926097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02229099882276249</v>
+      </c>
+      <c r="F8">
+        <v>0.008454436062571907</v>
+      </c>
+      <c r="G8">
+        <v>-0.05682153679900721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01648741455149596</v>
+        <v>-0.03404807065189634</v>
       </c>
       <c r="C9">
-        <v>-0.01758558602393586</v>
+        <v>-0.04719185166965401</v>
       </c>
       <c r="D9">
-        <v>0.0518809123136609</v>
+        <v>0.01645024100722466</v>
       </c>
       <c r="E9">
-        <v>0.004036332711861408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01685158069267693</v>
+      </c>
+      <c r="F9">
+        <v>0.01028762361178619</v>
+      </c>
+      <c r="G9">
+        <v>-0.08172858437021358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02198744578158771</v>
+        <v>-0.09593600927476058</v>
       </c>
       <c r="C10">
-        <v>-0.1677597335232948</v>
+        <v>0.1823864512191776</v>
       </c>
       <c r="D10">
-        <v>-0.09929300619179354</v>
+        <v>-0.01598587461157326</v>
       </c>
       <c r="E10">
-        <v>-0.009996198631315208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01521277145747168</v>
+      </c>
+      <c r="F10">
+        <v>-0.02215405429736385</v>
+      </c>
+      <c r="G10">
+        <v>-0.05247848654173594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006645583702876819</v>
+        <v>-0.03443324763943263</v>
       </c>
       <c r="C11">
-        <v>-0.004622093030157731</v>
+        <v>-0.05440896827093273</v>
       </c>
       <c r="D11">
-        <v>0.04270008688519267</v>
+        <v>0.002523794066595334</v>
       </c>
       <c r="E11">
-        <v>-0.006241098161227683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009479441343113359</v>
+      </c>
+      <c r="F11">
+        <v>0.02072589666026042</v>
+      </c>
+      <c r="G11">
+        <v>-0.06398897179948559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006342595578732391</v>
+        <v>-0.03617874509141116</v>
       </c>
       <c r="C12">
-        <v>-0.01088192503271166</v>
+        <v>-0.04915581488945564</v>
       </c>
       <c r="D12">
-        <v>0.04805597559693072</v>
+        <v>0.006236058770714182</v>
       </c>
       <c r="E12">
-        <v>0.005632142223150593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0002598950775198383</v>
+      </c>
+      <c r="F12">
+        <v>0.000884616963958464</v>
+      </c>
+      <c r="G12">
+        <v>-0.05949987341873988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0238149373671846</v>
+        <v>-0.01495077709938782</v>
       </c>
       <c r="C13">
-        <v>-0.01869422987584351</v>
+        <v>-0.03724636745377159</v>
       </c>
       <c r="D13">
-        <v>0.000492558563299205</v>
+        <v>0.02607949119224294</v>
       </c>
       <c r="E13">
-        <v>-0.008622735026897532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02922543379131561</v>
+      </c>
+      <c r="F13">
+        <v>0.005530584237657629</v>
+      </c>
+      <c r="G13">
+        <v>-0.09437900966848786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008630343249334482</v>
+        <v>-0.008428694546912927</v>
       </c>
       <c r="C14">
-        <v>-0.0154611790108569</v>
+        <v>-0.02655763719376023</v>
       </c>
       <c r="D14">
-        <v>0.007098014991508501</v>
+        <v>0.009290118930110402</v>
       </c>
       <c r="E14">
-        <v>0.008294972083215094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.001773553195950948</v>
+      </c>
+      <c r="F14">
+        <v>-0.006007677126680489</v>
+      </c>
+      <c r="G14">
+        <v>-0.08058411572430881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00148541624532171</v>
+        <v>-0.03320400875036589</v>
       </c>
       <c r="C16">
-        <v>-0.01009620834609172</v>
+        <v>-0.04887204320686053</v>
       </c>
       <c r="D16">
-        <v>0.04998299614733424</v>
+        <v>0.002018134823393418</v>
       </c>
       <c r="E16">
-        <v>0.004797574647787801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007878732877151632</v>
+      </c>
+      <c r="F16">
+        <v>0.001954250735070619</v>
+      </c>
+      <c r="G16">
+        <v>-0.06583762410542161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01460026924863053</v>
+        <v>-0.02231387258315248</v>
       </c>
       <c r="C19">
-        <v>-0.02079045557872597</v>
+        <v>-0.05021263843321385</v>
       </c>
       <c r="D19">
-        <v>0.01744269780180186</v>
+        <v>0.01803456393056952</v>
       </c>
       <c r="E19">
-        <v>0.005416175570656457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06479142554676569</v>
+      </c>
+      <c r="F19">
+        <v>0.01908407272822931</v>
+      </c>
+      <c r="G19">
+        <v>-0.1097682619268094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01066276774364986</v>
+        <v>-0.0148255496768444</v>
       </c>
       <c r="C20">
-        <v>-0.006443111867012387</v>
+        <v>-0.03749969894952646</v>
       </c>
       <c r="D20">
-        <v>0.01407264292140827</v>
+        <v>0.01388928503594229</v>
       </c>
       <c r="E20">
-        <v>-0.01091270438590742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02708752987273447</v>
+      </c>
+      <c r="F20">
+        <v>-0.01129771165087934</v>
+      </c>
+      <c r="G20">
+        <v>-0.08559771230797888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01478043080406985</v>
+        <v>-0.01318295890179714</v>
       </c>
       <c r="C21">
-        <v>-0.01815637707591627</v>
+        <v>-0.03964782648717934</v>
       </c>
       <c r="D21">
-        <v>0.0230537304788728</v>
+        <v>0.01800970868700002</v>
       </c>
       <c r="E21">
-        <v>0.01058542588221018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03981471672459608</v>
+      </c>
+      <c r="F21">
+        <v>-0.001808217143550493</v>
+      </c>
+      <c r="G21">
+        <v>-0.1137976237986923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.00447106076624076</v>
+        <v>-0.02771556676977099</v>
       </c>
       <c r="C24">
-        <v>0.0006099381379069856</v>
+        <v>-0.05157926941437347</v>
       </c>
       <c r="D24">
-        <v>0.04467371241703406</v>
+        <v>0.007348194586624714</v>
       </c>
       <c r="E24">
-        <v>0.0006401274211517546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005232351164526454</v>
+      </c>
+      <c r="F24">
+        <v>0.01360679528240261</v>
+      </c>
+      <c r="G24">
+        <v>-0.06743984843838122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01243846362401083</v>
+        <v>-0.04235088912711825</v>
       </c>
       <c r="C25">
-        <v>-0.01706669932006638</v>
+        <v>-0.05858677227400557</v>
       </c>
       <c r="D25">
-        <v>0.04599572902089767</v>
+        <v>0.01138787240979948</v>
       </c>
       <c r="E25">
-        <v>0.00132581555701322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001099854508034448</v>
+      </c>
+      <c r="F25">
+        <v>0.007936938971427185</v>
+      </c>
+      <c r="G25">
+        <v>-0.07504186204564783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02324609911340484</v>
+        <v>-0.01552492049298889</v>
       </c>
       <c r="C26">
-        <v>-0.009393626414365103</v>
+        <v>-0.009056310923900808</v>
       </c>
       <c r="D26">
-        <v>-0.003753206612809017</v>
+        <v>0.02342711139654464</v>
       </c>
       <c r="E26">
-        <v>0.008360832654306269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002738382670133929</v>
+      </c>
+      <c r="F26">
+        <v>-0.008021289013819445</v>
+      </c>
+      <c r="G26">
+        <v>-0.06350800678360458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04564045210694456</v>
+        <v>-0.1220053364146628</v>
       </c>
       <c r="C28">
-        <v>-0.2426893987970012</v>
+        <v>0.2351616311339452</v>
       </c>
       <c r="D28">
-        <v>-0.1475242573831459</v>
+        <v>-0.00681350189109605</v>
       </c>
       <c r="E28">
-        <v>0.01372254443510579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.003866206040758518</v>
+      </c>
+      <c r="F28">
+        <v>-0.0169052950572922</v>
+      </c>
+      <c r="G28">
+        <v>-0.06583488070201519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009092256542123955</v>
+        <v>-0.01057218718093641</v>
       </c>
       <c r="C29">
-        <v>-0.02049470080389866</v>
+        <v>-0.02037957562952387</v>
       </c>
       <c r="D29">
-        <v>0.004795608948679793</v>
+        <v>0.008030570827310464</v>
       </c>
       <c r="E29">
-        <v>0.004025899630170075</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.003631047117883653</v>
+      </c>
+      <c r="F29">
+        <v>-0.01539945298967441</v>
+      </c>
+      <c r="G29">
+        <v>-0.0722183365527439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02370847350922565</v>
+        <v>-0.0428758983408863</v>
       </c>
       <c r="C30">
-        <v>-0.0002868798073425175</v>
+        <v>-0.06622367598957918</v>
       </c>
       <c r="D30">
-        <v>0.05849086188190657</v>
+        <v>0.02887510071235468</v>
       </c>
       <c r="E30">
-        <v>-0.04779136765599495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05248876317678948</v>
+      </c>
+      <c r="F30">
+        <v>0.04844535253580941</v>
+      </c>
+      <c r="G30">
+        <v>-0.08290295083108071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01001561644286606</v>
+        <v>-0.05293874690139573</v>
       </c>
       <c r="C31">
-        <v>-0.04051639497407809</v>
+        <v>-0.03672720388277578</v>
       </c>
       <c r="D31">
-        <v>0.04645450629736201</v>
+        <v>0.003251020832047357</v>
       </c>
       <c r="E31">
-        <v>0.01011947779831432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006013819550082906</v>
+      </c>
+      <c r="F31">
+        <v>-0.04276151879643365</v>
+      </c>
+      <c r="G31">
+        <v>-0.0693998877155108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005290370381368801</v>
+        <v>-0.0005058085135159834</v>
       </c>
       <c r="C32">
-        <v>-0.0214901106061686</v>
+        <v>-0.02321463566190538</v>
       </c>
       <c r="D32">
-        <v>-0.009787478576152387</v>
+        <v>-0.003793195515479499</v>
       </c>
       <c r="E32">
-        <v>0.05062074750313993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01728600704128332</v>
+      </c>
+      <c r="F32">
+        <v>0.04002781372388938</v>
+      </c>
+      <c r="G32">
+        <v>-0.0982926433047572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01411281160252906</v>
+        <v>-0.02768434558186011</v>
       </c>
       <c r="C33">
-        <v>-0.02452741818610463</v>
+        <v>-0.0486133919829304</v>
       </c>
       <c r="D33">
-        <v>0.02834301700944812</v>
+        <v>0.01529685284731229</v>
       </c>
       <c r="E33">
-        <v>-0.02959652375664916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03390304435392451</v>
+      </c>
+      <c r="F33">
+        <v>0.01685544828531029</v>
+      </c>
+      <c r="G33">
+        <v>-0.1065474790608366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003857666668129878</v>
+        <v>-0.03951986758447711</v>
       </c>
       <c r="C34">
-        <v>-0.01731845087028496</v>
+        <v>-0.06305754305964223</v>
       </c>
       <c r="D34">
-        <v>0.05135255860714701</v>
+        <v>-0.004320536454827711</v>
       </c>
       <c r="E34">
-        <v>0.00940384151174662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.000374292793328673</v>
+      </c>
+      <c r="F34">
+        <v>0.02065764816131949</v>
+      </c>
+      <c r="G34">
+        <v>-0.07510541772219399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01325596043467384</v>
+        <v>-0.01507226377290937</v>
       </c>
       <c r="C36">
-        <v>-0.02026568505245699</v>
+        <v>-0.009619420896214186</v>
       </c>
       <c r="D36">
-        <v>0.002739939346442582</v>
+        <v>0.01183013756305396</v>
       </c>
       <c r="E36">
-        <v>0.003370677073281531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001891812490676326</v>
+      </c>
+      <c r="F36">
+        <v>-0.009001066324277412</v>
+      </c>
+      <c r="G36">
+        <v>-0.06099336288762577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003055005030722743</v>
+        <v>-0.03237909790797535</v>
       </c>
       <c r="C38">
-        <v>-0.03462997005054241</v>
+        <v>-0.03032724716254757</v>
       </c>
       <c r="D38">
-        <v>0.03783471498036253</v>
+        <v>-0.007751360576516528</v>
       </c>
       <c r="E38">
-        <v>0.006192452442082635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001406037098306891</v>
+      </c>
+      <c r="F38">
+        <v>-0.01796118749119893</v>
+      </c>
+      <c r="G38">
+        <v>-0.06651952277996095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004469364024069402</v>
+        <v>-0.03512451707917674</v>
       </c>
       <c r="C39">
-        <v>0.02105855884362999</v>
+        <v>-0.08111345172188714</v>
       </c>
       <c r="D39">
-        <v>0.08647467630291406</v>
+        <v>0.01191664106707624</v>
       </c>
       <c r="E39">
-        <v>-0.01130285676920698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02108509162706896</v>
+      </c>
+      <c r="F39">
+        <v>0.02606299125137165</v>
+      </c>
+      <c r="G39">
+        <v>-0.06451525761688433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01249992628104757</v>
+        <v>-0.01521006048881119</v>
       </c>
       <c r="C40">
-        <v>-0.01814145467912918</v>
+        <v>-0.04199949008424466</v>
       </c>
       <c r="D40">
-        <v>0.02513023079470772</v>
+        <v>0.01510889817944506</v>
       </c>
       <c r="E40">
-        <v>0.002902896749101162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02250089839596414</v>
+      </c>
+      <c r="F40">
+        <v>-0.01392939617722865</v>
+      </c>
+      <c r="G40">
+        <v>-0.1055133830205671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006489493570347282</v>
+        <v>-0.01872630762552025</v>
       </c>
       <c r="C41">
-        <v>-0.0215763108208084</v>
+        <v>0.0003895575241928897</v>
       </c>
       <c r="D41">
-        <v>-0.008468373770756611</v>
+        <v>0.003746632717223843</v>
       </c>
       <c r="E41">
-        <v>0.003226277769118651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0003068145175489425</v>
+      </c>
+      <c r="F41">
+        <v>-0.01096604154959242</v>
+      </c>
+      <c r="G41">
+        <v>-0.0477613406933094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09421862939832711</v>
+        <v>-0.01085129808226536</v>
       </c>
       <c r="C42">
-        <v>0.01581220454248001</v>
+        <v>-0.03726186690239607</v>
       </c>
       <c r="D42">
-        <v>0.2793855495061259</v>
+        <v>0.09359017776775075</v>
       </c>
       <c r="E42">
-        <v>-0.4221619750526807</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02881254958806065</v>
+      </c>
+      <c r="F42">
+        <v>-0.03525141506628274</v>
+      </c>
+      <c r="G42">
+        <v>0.1610985457987572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007827116859623166</v>
+        <v>-0.03378430601337003</v>
       </c>
       <c r="C43">
-        <v>-0.02599549400520955</v>
+        <v>-0.01358420869305607</v>
       </c>
       <c r="D43">
-        <v>-0.007475227350715219</v>
+        <v>0.005344661886537979</v>
       </c>
       <c r="E43">
-        <v>-0.001993496874215334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01309732736532468</v>
+      </c>
+      <c r="F43">
+        <v>-0.004546865764647285</v>
+      </c>
+      <c r="G43">
+        <v>-0.0728603182952884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00249383840781542</v>
+        <v>-0.01236754059571591</v>
       </c>
       <c r="C44">
-        <v>-0.002087282347002037</v>
+        <v>-0.05445961421280534</v>
       </c>
       <c r="D44">
-        <v>0.03439499818578601</v>
+        <v>0.006573735635010305</v>
       </c>
       <c r="E44">
-        <v>0.00591839135790192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01781715577118344</v>
+      </c>
+      <c r="F44">
+        <v>-0.009921067243042959</v>
+      </c>
+      <c r="G44">
+        <v>-0.08803610748769843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01128681103399217</v>
+        <v>-0.008039669821544308</v>
       </c>
       <c r="C46">
-        <v>-0.01480695343086992</v>
+        <v>-0.01622045075115092</v>
       </c>
       <c r="D46">
-        <v>0.009531147884237643</v>
+        <v>0.01188094733418124</v>
       </c>
       <c r="E46">
-        <v>-0.0009664660067754107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00176620929973651</v>
+      </c>
+      <c r="F46">
+        <v>-0.01675314152097376</v>
+      </c>
+      <c r="G46">
+        <v>-0.07269746370324096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004746436411937116</v>
+        <v>-0.07805087298122196</v>
       </c>
       <c r="C47">
-        <v>-0.0518506463894102</v>
+        <v>-0.0650302426016597</v>
       </c>
       <c r="D47">
-        <v>0.06832211931344379</v>
+        <v>-0.005401691430354697</v>
       </c>
       <c r="E47">
-        <v>0.004908523227990551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01026770330228158</v>
+      </c>
+      <c r="F47">
+        <v>-0.0565681095083481</v>
+      </c>
+      <c r="G47">
+        <v>-0.06461510220555335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004268445059952462</v>
+        <v>-0.02076834455209006</v>
       </c>
       <c r="C48">
-        <v>-0.02560486368155318</v>
+        <v>-0.01132024087836652</v>
       </c>
       <c r="D48">
-        <v>0.01471981144649551</v>
+        <v>0.001075981133452396</v>
       </c>
       <c r="E48">
-        <v>0.003090699937164614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002338535543666901</v>
+      </c>
+      <c r="F48">
+        <v>-0.02234341599062595</v>
+      </c>
+      <c r="G48">
+        <v>-0.06724755150117012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006738517765256701</v>
+        <v>-0.07624073901009883</v>
       </c>
       <c r="C50">
-        <v>-0.0532218004991088</v>
+        <v>-0.06884672559719901</v>
       </c>
       <c r="D50">
-        <v>0.07048556268933831</v>
+        <v>-0.003054059821507605</v>
       </c>
       <c r="E50">
-        <v>0.03225637107811493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01053323662889746</v>
+      </c>
+      <c r="F50">
+        <v>-0.06052655033813558</v>
+      </c>
+      <c r="G50">
+        <v>-0.08473727488744182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007623736982201986</v>
+        <v>-0.01395608416322916</v>
       </c>
       <c r="C51">
-        <v>-0.01698152161475617</v>
+        <v>-0.03355357765152581</v>
       </c>
       <c r="D51">
-        <v>-0.0003337211356730469</v>
+        <v>0.009996259116749787</v>
       </c>
       <c r="E51">
-        <v>0.005303858280201349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01682901578075043</v>
+      </c>
+      <c r="F51">
+        <v>0.02300563964486865</v>
+      </c>
+      <c r="G51">
+        <v>-0.1030966176932403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00793773845706529</v>
+        <v>-0.08281374201696008</v>
       </c>
       <c r="C53">
-        <v>-0.06431555352500636</v>
+        <v>-0.08341439768619827</v>
       </c>
       <c r="D53">
-        <v>0.125773673127246</v>
+        <v>-0.004304863642496605</v>
       </c>
       <c r="E53">
-        <v>0.0122751597570962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03029685719522776</v>
+      </c>
+      <c r="F53">
+        <v>-0.06553073228390142</v>
+      </c>
+      <c r="G53">
+        <v>-0.06349647232913869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001737723103729132</v>
+        <v>-0.02972211033523101</v>
       </c>
       <c r="C54">
-        <v>-0.03448533223999118</v>
+        <v>-0.01486402118555704</v>
       </c>
       <c r="D54">
-        <v>-0.007671979943655249</v>
+        <v>-0.001904750279222003</v>
       </c>
       <c r="E54">
-        <v>0.001359312233315572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.008584017241428807</v>
+      </c>
+      <c r="F54">
+        <v>-0.002582655641448131</v>
+      </c>
+      <c r="G54">
+        <v>-0.07492755010337782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00401345432292085</v>
+        <v>-0.07246855135576956</v>
       </c>
       <c r="C55">
-        <v>-0.0428678835701751</v>
+        <v>-0.06900629741993587</v>
       </c>
       <c r="D55">
-        <v>0.1042633865808554</v>
+        <v>-0.005487875316295019</v>
       </c>
       <c r="E55">
-        <v>-0.001140227288873138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02610314271001464</v>
+      </c>
+      <c r="F55">
+        <v>-0.06155098617299253</v>
+      </c>
+      <c r="G55">
+        <v>-0.03866566960319023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007281388404825019</v>
+        <v>-0.1395171074662839</v>
       </c>
       <c r="C56">
-        <v>-0.09002765742665884</v>
+        <v>-0.1089241957792788</v>
       </c>
       <c r="D56">
-        <v>0.1619881683444138</v>
+        <v>-0.01274441142324628</v>
       </c>
       <c r="E56">
-        <v>0.001538045581226208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03408507928399</v>
+      </c>
+      <c r="F56">
+        <v>-0.07976302371050903</v>
+      </c>
+      <c r="G56">
+        <v>-0.01660758851561942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0239016632405121</v>
+        <v>-0.007206749145168855</v>
       </c>
       <c r="C57">
-        <v>-0.01248222750201548</v>
+        <v>-0.009063479997048198</v>
       </c>
       <c r="D57">
-        <v>0.04173433050523086</v>
+        <v>0.0235790307036595</v>
       </c>
       <c r="E57">
-        <v>-0.002984865383377033</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02430188791008428</v>
+      </c>
+      <c r="F57">
+        <v>0.009177972276686947</v>
+      </c>
+      <c r="G57">
+        <v>-0.02776251276113432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01702954004324954</v>
+        <v>-0.06764439433321165</v>
       </c>
       <c r="C58">
-        <v>-0.0849622534327316</v>
+        <v>-0.04268008021307444</v>
       </c>
       <c r="D58">
-        <v>0.1229296821776232</v>
+        <v>0.02647817929169105</v>
       </c>
       <c r="E58">
-        <v>-0.4153917397487906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9336366124090956</v>
+      </c>
+      <c r="F58">
+        <v>-0.2425147533649618</v>
+      </c>
+      <c r="G58">
+        <v>0.1105558739672635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04293543304834588</v>
+        <v>-0.1578043644849668</v>
       </c>
       <c r="C59">
-        <v>-0.257320982451846</v>
+        <v>0.2037739744648459</v>
       </c>
       <c r="D59">
-        <v>-0.1521211076284809</v>
+        <v>-0.01237344770619244</v>
       </c>
       <c r="E59">
-        <v>0.007437029834282063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01390661944775295</v>
+      </c>
+      <c r="F59">
+        <v>-0.001101196612764669</v>
+      </c>
+      <c r="G59">
+        <v>-0.0418005186813945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04311684660764854</v>
+        <v>-0.287106830050627</v>
       </c>
       <c r="C60">
-        <v>-0.1621315208556578</v>
+        <v>-0.09808237153313182</v>
       </c>
       <c r="D60">
-        <v>0.08186636476038554</v>
+        <v>0.01272722045074839</v>
       </c>
       <c r="E60">
-        <v>0.003667619441262812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001895664496609211</v>
+      </c>
+      <c r="F60">
+        <v>0.351273257427602</v>
+      </c>
+      <c r="G60">
+        <v>0.119612976542272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003187770273568775</v>
+        <v>-0.03645160997134397</v>
       </c>
       <c r="C61">
-        <v>-0.005713958572068835</v>
+        <v>-0.06657479153893185</v>
       </c>
       <c r="D61">
-        <v>0.06146131987309836</v>
+        <v>0.00537523865675757</v>
       </c>
       <c r="E61">
-        <v>0.002037759471044872</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01365785139901845</v>
+      </c>
+      <c r="F61">
+        <v>0.0145406645213849</v>
+      </c>
+      <c r="G61">
+        <v>-0.06597403771971147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007893997083777192</v>
+        <v>-0.01425602491463231</v>
       </c>
       <c r="C63">
-        <v>-0.007768310897521244</v>
+        <v>-0.02929962905294091</v>
       </c>
       <c r="D63">
-        <v>0.01061031834871264</v>
+        <v>0.008161258114695988</v>
       </c>
       <c r="E63">
-        <v>0.009750274348219004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001404780266739414</v>
+      </c>
+      <c r="F63">
+        <v>-0.01836858033471475</v>
+      </c>
+      <c r="G63">
+        <v>-0.07257141965357451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009219882959043619</v>
+        <v>-0.04686241465701178</v>
       </c>
       <c r="C64">
-        <v>-0.02879791281949396</v>
+        <v>-0.04647444381540434</v>
       </c>
       <c r="D64">
-        <v>0.06219999980200789</v>
+        <v>0.006374000612868471</v>
       </c>
       <c r="E64">
-        <v>-0.01400312984337013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.002447577092925561</v>
+      </c>
+      <c r="F64">
+        <v>0.004711104712694696</v>
+      </c>
+      <c r="G64">
+        <v>-0.06127803340929343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01708516736490404</v>
+        <v>-0.07753483667463326</v>
       </c>
       <c r="C65">
-        <v>-0.006514645697450743</v>
+        <v>-0.05973155670801499</v>
       </c>
       <c r="D65">
-        <v>0.09980432758789266</v>
+        <v>0.01628311072154745</v>
       </c>
       <c r="E65">
-        <v>0.01072570488526573</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02774355734701324</v>
+      </c>
+      <c r="F65">
+        <v>0.03048895802871134</v>
+      </c>
+      <c r="G65">
+        <v>-0.0266181716479238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00423375803147306</v>
+        <v>-0.05073928180502228</v>
       </c>
       <c r="C66">
-        <v>0.01695769210936689</v>
+        <v>-0.1119386275180742</v>
       </c>
       <c r="D66">
-        <v>0.1105435378905901</v>
+        <v>0.01196108652909489</v>
       </c>
       <c r="E66">
-        <v>-0.00833190102734876</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02947764436185598</v>
+      </c>
+      <c r="F66">
+        <v>0.03500324292617512</v>
+      </c>
+      <c r="G66">
+        <v>-0.07483210724456013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003825224645050669</v>
+        <v>-0.05499832131794253</v>
       </c>
       <c r="C67">
-        <v>-0.05671402241532169</v>
+        <v>-0.03363998247491638</v>
       </c>
       <c r="D67">
-        <v>0.04421391415206237</v>
+        <v>-0.006002515588283582</v>
       </c>
       <c r="E67">
-        <v>0.007525640597763371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005390278011287341</v>
+      </c>
+      <c r="F67">
+        <v>-0.01834478797096916</v>
+      </c>
+      <c r="G67">
+        <v>-0.06030074971222846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0593697836075261</v>
+        <v>-0.146089116110236</v>
       </c>
       <c r="C68">
-        <v>-0.233353388787006</v>
+        <v>0.2690060494946829</v>
       </c>
       <c r="D68">
-        <v>-0.1569810289540657</v>
+        <v>0.00543277748119581</v>
       </c>
       <c r="E68">
-        <v>-0.01376787551679599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01040414548581667</v>
+      </c>
+      <c r="F68">
+        <v>-0.03250164033741737</v>
+      </c>
+      <c r="G68">
+        <v>-0.0248566990533993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0005844919648949041</v>
+        <v>-0.08165047803163471</v>
       </c>
       <c r="C69">
-        <v>-0.04078857592345653</v>
+        <v>-0.06792464573530252</v>
       </c>
       <c r="D69">
-        <v>0.06907319077434042</v>
+        <v>-0.009541742834710376</v>
       </c>
       <c r="E69">
-        <v>0.009984845891604919</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02728627172183299</v>
+      </c>
+      <c r="F69">
+        <v>-0.03978016102840167</v>
+      </c>
+      <c r="G69">
+        <v>-0.06628604458520222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04416966050499301</v>
+        <v>-0.1345215894808635</v>
       </c>
       <c r="C71">
-        <v>-0.2049824784615933</v>
+        <v>0.2289654424420758</v>
       </c>
       <c r="D71">
-        <v>-0.1274438841657614</v>
+        <v>-0.003267125727870828</v>
       </c>
       <c r="E71">
-        <v>-0.007368132969000363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0300476999538863</v>
+      </c>
+      <c r="F71">
+        <v>-0.01657825719725969</v>
+      </c>
+      <c r="G71">
+        <v>-0.05528499152087069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0001862906650833245</v>
+        <v>-0.08600239391725864</v>
       </c>
       <c r="C72">
-        <v>-0.04217866322336816</v>
+        <v>-0.07174550163858091</v>
       </c>
       <c r="D72">
-        <v>0.1154290433329159</v>
+        <v>-0.007894177837944853</v>
       </c>
       <c r="E72">
-        <v>0.005205346554863299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.001202167346139928</v>
+      </c>
+      <c r="F72">
+        <v>0.04419163018903597</v>
+      </c>
+      <c r="G72">
+        <v>-0.05813272870003788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05636954974630029</v>
+        <v>-0.3825613983145631</v>
       </c>
       <c r="C73">
-        <v>-0.1817064825614901</v>
+        <v>-0.1134220946734481</v>
       </c>
       <c r="D73">
-        <v>0.162395276536742</v>
+        <v>0.0220852772673108</v>
       </c>
       <c r="E73">
-        <v>-0.03565336429825738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07042741950786238</v>
+      </c>
+      <c r="F73">
+        <v>0.5704741819336333</v>
+      </c>
+      <c r="G73">
+        <v>0.2003528229903291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004055157310320965</v>
+        <v>-0.1079917327053524</v>
       </c>
       <c r="C74">
-        <v>-0.0737497859902659</v>
+        <v>-0.1111173848838459</v>
       </c>
       <c r="D74">
-        <v>0.1602807696796072</v>
+        <v>-0.009960077442809773</v>
       </c>
       <c r="E74">
-        <v>-0.00895199275524625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01294382755774163</v>
+      </c>
+      <c r="F74">
+        <v>-0.07102098974782134</v>
+      </c>
+      <c r="G74">
+        <v>-0.05906677363503555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01378509721186507</v>
+        <v>-0.2497359839628001</v>
       </c>
       <c r="C75">
-        <v>-0.1773731474573662</v>
+        <v>-0.1485861483768129</v>
       </c>
       <c r="D75">
-        <v>0.2954467505319951</v>
+        <v>-0.03082321566427193</v>
       </c>
       <c r="E75">
-        <v>-0.01436716545476064</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0582748410423849</v>
+      </c>
+      <c r="F75">
+        <v>-0.1747768710897961</v>
+      </c>
+      <c r="G75">
+        <v>0.057496557399529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001498843082207256</v>
+        <v>-0.1229657731998107</v>
       </c>
       <c r="C76">
-        <v>-0.1119534765992645</v>
+        <v>-0.1129350999299474</v>
       </c>
       <c r="D76">
-        <v>0.2304093157563191</v>
+        <v>-0.02030871100034112</v>
       </c>
       <c r="E76">
-        <v>0.03351135552852286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04236364343372558</v>
+      </c>
+      <c r="F76">
+        <v>-0.1133549298887074</v>
+      </c>
+      <c r="G76">
+        <v>-0.03663485304974742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01399749084950079</v>
+        <v>-0.0661440484134293</v>
       </c>
       <c r="C77">
-        <v>-0.02042827331607822</v>
+        <v>-0.05850486307128286</v>
       </c>
       <c r="D77">
-        <v>0.03202427828375137</v>
+        <v>0.01257673060004339</v>
       </c>
       <c r="E77">
-        <v>-0.01830478387889932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05091487235484723</v>
+      </c>
+      <c r="F77">
+        <v>0.01398227082721566</v>
+      </c>
+      <c r="G77">
+        <v>-0.06132544016609496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006750983456827652</v>
+        <v>-0.04453521633118451</v>
       </c>
       <c r="C78">
-        <v>-0.02197465194346693</v>
+        <v>-0.04832251357460694</v>
       </c>
       <c r="D78">
-        <v>0.03925899830972075</v>
+        <v>0.005501765871646545</v>
       </c>
       <c r="E78">
-        <v>-0.004272502320630677</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02367962504591323</v>
+      </c>
+      <c r="F78">
+        <v>0.03752219667325982</v>
+      </c>
+      <c r="G78">
+        <v>-0.06930045928611522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01668497580346475</v>
+        <v>-0.05626925262442737</v>
       </c>
       <c r="C80">
-        <v>-0.08347280502724004</v>
+        <v>-0.07074409881233663</v>
       </c>
       <c r="D80">
-        <v>0.2262878549664565</v>
+        <v>0.01040474879446357</v>
       </c>
       <c r="E80">
-        <v>0.7799080639350997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02504016602385534</v>
+      </c>
+      <c r="F80">
+        <v>0.003600516156842514</v>
+      </c>
+      <c r="G80">
+        <v>-0.6269414392220501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008680049631986837</v>
+        <v>-0.140252430232804</v>
       </c>
       <c r="C81">
-        <v>-0.1040787221775929</v>
+        <v>-0.09528665330103912</v>
       </c>
       <c r="D81">
-        <v>0.170298602242143</v>
+        <v>-0.01542802249935116</v>
       </c>
       <c r="E81">
-        <v>0.01298345315401847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03668028897506096</v>
+      </c>
+      <c r="F81">
+        <v>-0.1318164638676582</v>
+      </c>
+      <c r="G81">
+        <v>-0.02185479264487255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1223583396597376</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06668887920393669</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.007306740926496214</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0878791899319555</v>
+      </c>
+      <c r="F82">
+        <v>-0.03125376025916485</v>
+      </c>
+      <c r="G82">
+        <v>-0.03389481813572118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007207488074089977</v>
+        <v>-0.03517036635018702</v>
       </c>
       <c r="C83">
-        <v>-0.01990464274256119</v>
+        <v>-0.02574733079788692</v>
       </c>
       <c r="D83">
-        <v>0.0194170248630004</v>
+        <v>0.005631987506053254</v>
       </c>
       <c r="E83">
-        <v>-0.0002153049660866046</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02784721103929929</v>
+      </c>
+      <c r="F83">
+        <v>0.0337372675668999</v>
+      </c>
+      <c r="G83">
+        <v>-0.04578520917285993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01996324647022275</v>
+        <v>-0.2166800314428557</v>
       </c>
       <c r="C85">
-        <v>-0.140750109375596</v>
+        <v>-0.1425476743052121</v>
       </c>
       <c r="D85">
-        <v>0.2688607321777108</v>
+        <v>-0.01864446822897775</v>
       </c>
       <c r="E85">
-        <v>-0.008436955417640998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09949170109057258</v>
+      </c>
+      <c r="F85">
+        <v>-0.1363791175935498</v>
+      </c>
+      <c r="G85">
+        <v>0.1061030944101551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01000664220265683</v>
+        <v>-0.01353180887101697</v>
       </c>
       <c r="C86">
-        <v>-0.03189825008917629</v>
+        <v>-0.02513821753220051</v>
       </c>
       <c r="D86">
-        <v>0.006771097638519592</v>
+        <v>0.01213599832243293</v>
       </c>
       <c r="E86">
-        <v>-0.0351139680546116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04648211176075956</v>
+      </c>
+      <c r="F86">
+        <v>0.03185468420925742</v>
+      </c>
+      <c r="G86">
+        <v>-0.1550164041630364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.009063876223273919</v>
+        <v>-0.02371155960092632</v>
       </c>
       <c r="C87">
-        <v>-0.01201247324155272</v>
+        <v>-0.02579372139110386</v>
       </c>
       <c r="D87">
-        <v>0.03846446787288809</v>
+        <v>0.01199802155744862</v>
       </c>
       <c r="E87">
-        <v>-0.007969773322887124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08582285190368141</v>
+      </c>
+      <c r="F87">
+        <v>0.02093824691282098</v>
+      </c>
+      <c r="G87">
+        <v>-0.09204857317569497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02741584740315515</v>
+        <v>-0.09175723477704147</v>
       </c>
       <c r="C88">
-        <v>-0.02571416076306032</v>
+        <v>-0.06512947804221274</v>
       </c>
       <c r="D88">
-        <v>0.03993763130441014</v>
+        <v>0.02227471265137387</v>
       </c>
       <c r="E88">
-        <v>0.0006641949058507467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01199182415245144</v>
+      </c>
+      <c r="F88">
+        <v>-0.02094187673175399</v>
+      </c>
+      <c r="G88">
+        <v>-0.04964545070813707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08387054089858108</v>
+        <v>-0.2257952845563499</v>
       </c>
       <c r="C89">
-        <v>-0.380365493649549</v>
+        <v>0.3693787890181437</v>
       </c>
       <c r="D89">
-        <v>-0.2280472003477245</v>
+        <v>-0.001999721701115751</v>
       </c>
       <c r="E89">
-        <v>0.01957670442320731</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02322554697618153</v>
+      </c>
+      <c r="F89">
+        <v>-0.03500023270086195</v>
+      </c>
+      <c r="G89">
+        <v>-0.04730396273150073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06399599099008366</v>
+        <v>-0.2041490925539663</v>
       </c>
       <c r="C90">
-        <v>-0.2950664421280748</v>
+        <v>0.3248962016477508</v>
       </c>
       <c r="D90">
-        <v>-0.2017730983806748</v>
+        <v>-0.006471519522264911</v>
       </c>
       <c r="E90">
-        <v>-0.01471423981462602</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01296323222291762</v>
+      </c>
+      <c r="F90">
+        <v>-0.05073181069574688</v>
+      </c>
+      <c r="G90">
+        <v>-0.01877803010427818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009271714571886901</v>
+        <v>-0.1901061840407531</v>
       </c>
       <c r="C91">
-        <v>-0.1510446362956493</v>
+        <v>-0.1406884901318119</v>
       </c>
       <c r="D91">
-        <v>0.2243277420672967</v>
+        <v>-0.02339395904948996</v>
       </c>
       <c r="E91">
-        <v>0.01439136473370452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06957361561006149</v>
+      </c>
+      <c r="F91">
+        <v>-0.1502350664989709</v>
+      </c>
+      <c r="G91">
+        <v>-0.01054496745421732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03089386448913656</v>
+        <v>-0.2002379600078129</v>
       </c>
       <c r="C92">
-        <v>-0.3074000177541429</v>
+        <v>0.2627242909515506</v>
       </c>
       <c r="D92">
-        <v>-0.09359518568396431</v>
+        <v>-0.04071015389343496</v>
       </c>
       <c r="E92">
-        <v>-0.01700387179819956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02189522401494056</v>
+      </c>
+      <c r="F92">
+        <v>-0.0637591956615525</v>
+      </c>
+      <c r="G92">
+        <v>-0.126042911316818</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06215176290425264</v>
+        <v>-0.2288058581460137</v>
       </c>
       <c r="C93">
-        <v>-0.31963628755697</v>
+        <v>0.3239811669884475</v>
       </c>
       <c r="D93">
-        <v>-0.1857364717257634</v>
+        <v>-0.01301013371986305</v>
       </c>
       <c r="E93">
-        <v>-0.03948902096103469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00256541253936675</v>
+      </c>
+      <c r="F93">
+        <v>-0.0330394019447568</v>
+      </c>
+      <c r="G93">
+        <v>-0.01981335477837947</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03332631878309242</v>
+        <v>-0.3153239074295154</v>
       </c>
       <c r="C94">
-        <v>-0.1768396788107168</v>
+        <v>-0.176262167795019</v>
       </c>
       <c r="D94">
-        <v>0.2523831672791892</v>
+        <v>-0.01810710471957904</v>
       </c>
       <c r="E94">
-        <v>-0.01532268139041767</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1734183360215089</v>
+      </c>
+      <c r="F94">
+        <v>-0.4745087270978534</v>
+      </c>
+      <c r="G94">
+        <v>0.3076697321667358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004293508377930663</v>
+        <v>-0.09946964418932308</v>
       </c>
       <c r="C95">
-        <v>-0.03795141529858183</v>
+        <v>-0.08705054222044141</v>
       </c>
       <c r="D95">
-        <v>0.08627764736834689</v>
+        <v>-0.009650419095755921</v>
       </c>
       <c r="E95">
-        <v>-0.1273162352978067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06251807173023047</v>
+      </c>
+      <c r="F95">
+        <v>0.2049105839506352</v>
+      </c>
+      <c r="G95">
+        <v>0.1227861593105138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0168002777997109</v>
+        <v>-0.1997059487692932</v>
       </c>
       <c r="C98">
-        <v>-0.1657152927078625</v>
+        <v>-0.04523697737421186</v>
       </c>
       <c r="D98">
-        <v>0.1188115382194452</v>
+        <v>-0.01233601743394747</v>
       </c>
       <c r="E98">
-        <v>-0.04372263303586268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0707455428543614</v>
+      </c>
+      <c r="F98">
+        <v>0.2396994160075405</v>
+      </c>
+      <c r="G98">
+        <v>0.008006727640793515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008872591336883491</v>
+        <v>-0.01039500606725782</v>
       </c>
       <c r="C101">
-        <v>-0.02019002293649203</v>
+        <v>-0.02033878777638394</v>
       </c>
       <c r="D101">
-        <v>0.004522478336094158</v>
+        <v>0.007851072563415841</v>
       </c>
       <c r="E101">
-        <v>0.004429537567425063</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.003917559015583993</v>
+      </c>
+      <c r="F101">
+        <v>-0.01640883627109456</v>
+      </c>
+      <c r="G101">
+        <v>-0.07169895985707062</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01883277936474619</v>
+        <v>-0.1177437124643821</v>
       </c>
       <c r="C102">
-        <v>-0.07772977932648484</v>
+        <v>-0.08425886311999216</v>
       </c>
       <c r="D102">
-        <v>0.1297253535716331</v>
+        <v>0.0009673341910048938</v>
       </c>
       <c r="E102">
-        <v>0.0009173409322148686</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0321135759305455</v>
+      </c>
+      <c r="F102">
+        <v>-0.04044633789053859</v>
+      </c>
+      <c r="G102">
+        <v>-0.000105067390790026</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001782102118603755</v>
+        <v>-0.003083540159003379</v>
       </c>
       <c r="C103">
-        <v>-0.009819031234965088</v>
+        <v>-0.003635554206691158</v>
       </c>
       <c r="D103">
-        <v>0.02202692079442108</v>
+        <v>0.0001920609722844292</v>
       </c>
       <c r="E103">
-        <v>0.01346139570668584</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002090983201152263</v>
+      </c>
+      <c r="F103">
+        <v>-0.00427379684492471</v>
+      </c>
+      <c r="G103">
+        <v>-0.01219767385464462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9741299584701065</v>
+        <v>-0.02242848118663367</v>
       </c>
       <c r="C104">
-        <v>0.1802874106542173</v>
+        <v>0.03259370658437719</v>
       </c>
       <c r="D104">
-        <v>-0.01494967344540264</v>
+        <v>0.9872497385582442</v>
       </c>
       <c r="E104">
-        <v>0.0411687867744981</v>
+        <v>-0.05197014480102773</v>
+      </c>
+      <c r="F104">
+        <v>-0.03836598920992172</v>
+      </c>
+      <c r="G104">
+        <v>0.02307073650400453</v>
       </c>
     </row>
   </sheetData>
